--- a/InputData/bldgs/PEURfRC/Perc E Use Red for Retrofit Components.xlsx
+++ b/InputData/bldgs/PEURfRC/Perc E Use Red for Retrofit Components.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="50" windowWidth="25240" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="19440" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t xml:space="preserve">about future developments, current data on use and costs remains inadequate. </t>
   </si>
   <si>
-    <t>The 20% threshold is chosen as a lower mid-point level for potential.</t>
-  </si>
-  <si>
     <t>The specific level interacts with other assumptions and inputs, such as the maximum feasible pace of</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Discussion</t>
+  </si>
+  <si>
+    <t>The 20% threshold issuggested as a lower mid-point level for potential.</t>
   </si>
 </sst>
 </file>
@@ -746,18 +746,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A67" sqref="A66:XFD67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -765,17 +765,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -783,240 +783,240 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>2009</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B15" s="11">
         <v>2015</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B21" s="11">
         <v>2015</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B24" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B25" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
+    <row r="37" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A40" s="12"/>
+    </row>
+    <row r="41" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
+    <row r="42" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A42" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="12"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
+    <row r="44" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A147" s="4"/>
     </row>
   </sheetData>
@@ -1040,14 +1040,14 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
